--- a/public/scores.xlsx
+++ b/public/scores.xlsx
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>56</v>
+        <v>156</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -435,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
